--- a/scrapy命令.xlsx
+++ b/scrapy命令.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insurance\project_insurance_scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B19A634-ECC4-4D2F-8D06-E794DCC63314}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5E3F2-AAB8-4484-8119-BD57DB480045}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scrapy总结代码表" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1671">
   <si>
     <t>序号</t>
   </si>
@@ -5314,6 +5314,14 @@
   </si>
   <si>
     <t>http://www.ydpic.com.cn/html/ydth/col1040000017/column_1040000017_1.html</t>
+  </si>
+  <si>
+    <t>splash</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在splash里加header</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5689,10 +5697,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{9C727373-8515-436F-9A67-596C4516D505}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{F32CC7D5-8540-45FE-93AE-04D08D47655A}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7080,6 +7088,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7087,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974DFF1B-6BF7-4AD7-A27D-7FA6EB109657}">
   <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -14988,8 +14997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.1"/>
@@ -15377,16 +15386,28 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="E35" s="15"/>
+      <c r="A35" s="12">
+        <v>4</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E29" r:id="rId1" xr:uid="{3B1A30E1-050F-4195-968B-088D34BDEEA5}"/>
     <hyperlink ref="B21" r:id="rId2" display="http://localhost:8050/" xr:uid="{50C5268B-62A3-43DF-B54E-FC2BC871BE73}"/>
+    <hyperlink ref="E35" r:id="rId3" xr:uid="{E6E636B4-8D34-45D0-985D-AD4A55FF603C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -15395,7 +15416,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.1"/>
